--- a/data/pca/factorExposure/factorExposure_2018-01-30.xlsx
+++ b/data/pca/factorExposure/factorExposure_2018-01-30.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
   <si>
     <t>factor1</t>
   </si>
@@ -29,6 +29,12 @@
   </si>
   <si>
     <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -695,13 +701,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F104"/>
+  <dimension ref="A1:H104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -717,70 +723,94 @@
       <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B2">
-        <v>0.002901742925775539</v>
+        <v>-0.01244894661785566</v>
       </c>
       <c r="C2">
-        <v>0.004191826165028893</v>
+        <v>-0.02980847054770958</v>
       </c>
       <c r="D2">
-        <v>-0.02518480429811198</v>
+        <v>-0.02582354816344128</v>
       </c>
       <c r="E2">
-        <v>0.04468538251229096</v>
+        <v>-0.01143509661245363</v>
       </c>
       <c r="F2">
-        <v>0.0482114986750123</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
+        <v>-0.02964627792699704</v>
+      </c>
+      <c r="G2">
+        <v>-0.01427537560106867</v>
+      </c>
+      <c r="H2">
+        <v>-0.02834742194987871</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B3">
-        <v>0.06721017490854306</v>
+        <v>-0.05810568193850268</v>
       </c>
       <c r="C3">
-        <v>-0.005221971858543929</v>
+        <v>-0.08539181960459968</v>
       </c>
       <c r="D3">
-        <v>0.02005508657265756</v>
+        <v>-0.009295391492206168</v>
       </c>
       <c r="E3">
-        <v>0.1669781810260969</v>
+        <v>-0.05225258404492343</v>
       </c>
       <c r="F3">
-        <v>0.2256834268760795</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
+        <v>-0.1079080183511368</v>
+      </c>
+      <c r="G3">
+        <v>0.006456393795385126</v>
+      </c>
+      <c r="H3">
+        <v>-0.08155336441886858</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B4">
-        <v>0.03069369333457348</v>
+        <v>-0.03761475517553644</v>
       </c>
       <c r="C4">
-        <v>-0.01760851038817448</v>
+        <v>-0.06192333207939138</v>
       </c>
       <c r="D4">
-        <v>-0.03069450162557174</v>
+        <v>-0.01978416639125725</v>
       </c>
       <c r="E4">
-        <v>3.902623469839856e-05</v>
+        <v>0.004283855884137228</v>
       </c>
       <c r="F4">
-        <v>0.05028483966673283</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
+        <v>-0.04309418622272228</v>
+      </c>
+      <c r="G4">
+        <v>0.0254525475664115</v>
+      </c>
+      <c r="H4">
+        <v>-0.002152048224824591</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -797,190 +827,250 @@
       <c r="F5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:6">
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B6">
-        <v>0.04733079288039137</v>
+        <v>-0.02176051707723715</v>
       </c>
       <c r="C6">
-        <v>-0.00794989239758472</v>
+        <v>-0.05577790790417256</v>
       </c>
       <c r="D6">
-        <v>-0.04041251413541679</v>
+        <v>-0.01442171589926438</v>
       </c>
       <c r="E6">
-        <v>-0.003286895686222063</v>
+        <v>0.00429688641528739</v>
       </c>
       <c r="F6">
-        <v>0.0415197513689301</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
+        <v>-0.02159703682493018</v>
+      </c>
+      <c r="G6">
+        <v>0.01119504961088344</v>
+      </c>
+      <c r="H6">
+        <v>-0.005841650570989063</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B7">
-        <v>0.02085483223338108</v>
+        <v>-0.005298877986870921</v>
       </c>
       <c r="C7">
-        <v>-0.07147437047867854</v>
+        <v>-0.03066150361998753</v>
       </c>
       <c r="D7">
-        <v>-0.005871987636570058</v>
+        <v>-0.01207670304172474</v>
       </c>
       <c r="E7">
-        <v>0.005774547248822475</v>
+        <v>0.01744131600766017</v>
       </c>
       <c r="F7">
-        <v>0.01265836704843416</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
+        <v>-0.02362492895485794</v>
+      </c>
+      <c r="G7">
+        <v>0.06098689570842789</v>
+      </c>
+      <c r="H7">
+        <v>-0.04255087076917347</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B8">
-        <v>-0.01060997092344972</v>
+        <v>0.005475720797514434</v>
       </c>
       <c r="C8">
-        <v>-0.008730254947544569</v>
+        <v>-0.002226964632387394</v>
       </c>
       <c r="D8">
-        <v>-0.02242977371976015</v>
+        <v>-0.001927067154490414</v>
       </c>
       <c r="E8">
-        <v>0.006310789696060973</v>
+        <v>-0.004181102925410822</v>
       </c>
       <c r="F8">
-        <v>0.04535173291247552</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
+        <v>-0.02726907410579437</v>
+      </c>
+      <c r="G8">
+        <v>0.01107565493371411</v>
+      </c>
+      <c r="H8">
+        <v>-0.005092062694483993</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B9">
-        <v>0.02662754436394086</v>
+        <v>-0.01783533101274674</v>
       </c>
       <c r="C9">
-        <v>-0.01397794373335768</v>
+        <v>-0.04047575039830401</v>
       </c>
       <c r="D9">
-        <v>-0.03051050055034973</v>
+        <v>-0.01407472018152284</v>
       </c>
       <c r="E9">
-        <v>0.031051741436495</v>
+        <v>0.0008931080675085894</v>
       </c>
       <c r="F9">
-        <v>0.05122853644458673</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
+        <v>-0.02231625773974472</v>
+      </c>
+      <c r="G9">
+        <v>0.01543389963853684</v>
+      </c>
+      <c r="H9">
+        <v>-0.02411431108639687</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B10">
-        <v>0.05467410388334773</v>
+        <v>-0.113667287361719</v>
       </c>
       <c r="C10">
-        <v>0.005447662839304359</v>
+        <v>0.1692583648289754</v>
       </c>
       <c r="D10">
-        <v>0.1568682849878188</v>
+        <v>0.02150814630656704</v>
       </c>
       <c r="E10">
-        <v>0.05766731547802607</v>
+        <v>-0.02678501891888987</v>
       </c>
       <c r="F10">
-        <v>-0.003197852403366062</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
+        <v>0.006415942315044731</v>
+      </c>
+      <c r="G10">
+        <v>0.02169903871616012</v>
+      </c>
+      <c r="H10">
+        <v>-0.03889667104369923</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B11">
-        <v>0.02615591313318907</v>
+        <v>-0.01905051213340238</v>
       </c>
       <c r="C11">
-        <v>0.001858754976892946</v>
+        <v>-0.04887600799110945</v>
       </c>
       <c r="D11">
-        <v>-0.04172814555474103</v>
+        <v>-0.000253256429658842</v>
       </c>
       <c r="E11">
-        <v>-0.006475037690468595</v>
+        <v>0.008588707835979989</v>
       </c>
       <c r="F11">
-        <v>0.02002457049298139</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
+        <v>-0.03243749059566928</v>
+      </c>
+      <c r="G11">
+        <v>-0.01093979450981341</v>
+      </c>
+      <c r="H11">
+        <v>-0.01909221371081744</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B12">
-        <v>0.03290095308038198</v>
+        <v>-0.02177111261726149</v>
       </c>
       <c r="C12">
-        <v>-0.003844272624027303</v>
+        <v>-0.04458679469784851</v>
       </c>
       <c r="D12">
-        <v>-0.03699490314803867</v>
+        <v>-0.004314623548843322</v>
       </c>
       <c r="E12">
-        <v>-0.02019755133909163</v>
+        <v>0.01296129332657952</v>
       </c>
       <c r="F12">
-        <v>0.003104375973057997</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
+        <v>-0.01651566886817925</v>
+      </c>
+      <c r="G12">
+        <v>0.006394307960478011</v>
+      </c>
+      <c r="H12">
+        <v>-0.01170080787416229</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B13">
-        <v>0.01527440183786808</v>
+        <v>-0.01126455112448618</v>
       </c>
       <c r="C13">
-        <v>0.003267139835396665</v>
+        <v>-0.02325608768208803</v>
       </c>
       <c r="D13">
-        <v>-0.006885682420721935</v>
+        <v>-0.02225489360462945</v>
       </c>
       <c r="E13">
-        <v>0.02281521357032327</v>
+        <v>-0.01396206995935527</v>
       </c>
       <c r="F13">
-        <v>0.04816238167476115</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
+        <v>-0.04814311787498299</v>
+      </c>
+      <c r="G13">
+        <v>-0.002544496861611187</v>
+      </c>
+      <c r="H13">
+        <v>-0.02463688203214719</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B14">
-        <v>0.01343541646465057</v>
+        <v>-0.004213417042001937</v>
       </c>
       <c r="C14">
-        <v>-0.01549583494597391</v>
+        <v>-0.01922792773263851</v>
       </c>
       <c r="D14">
-        <v>-0.007609703904651299</v>
+        <v>-0.007555052227320532</v>
       </c>
       <c r="E14">
-        <v>0.004091161420835879</v>
+        <v>0.006379578237155396</v>
       </c>
       <c r="F14">
-        <v>0.03980316319913406</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
+        <v>-0.01904858326697117</v>
+      </c>
+      <c r="G14">
+        <v>0.02479347573642786</v>
+      </c>
+      <c r="H14">
+        <v>-0.01225617675233361</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -997,30 +1087,42 @@
       <c r="F15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:6">
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B16">
-        <v>0.02304190058301038</v>
+        <v>-0.01757705175836344</v>
       </c>
       <c r="C16">
-        <v>-0.003409297799057386</v>
+        <v>-0.03986742871677888</v>
       </c>
       <c r="D16">
-        <v>-0.04026950085133154</v>
+        <v>-7.503005545050221e-05</v>
       </c>
       <c r="E16">
-        <v>-0.004267481633332243</v>
+        <v>0.006056366264337083</v>
       </c>
       <c r="F16">
-        <v>0.0206560869688681</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6">
+        <v>-0.02328022484783094</v>
+      </c>
+      <c r="G16">
+        <v>0.0009945037036212768</v>
+      </c>
+      <c r="H16">
+        <v>-0.01446632094130856</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -1037,10 +1139,16 @@
       <c r="F17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:6">
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1057,70 +1165,94 @@
       <c r="F18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:6">
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B19">
-        <v>0.0265048632500738</v>
+        <v>-0.02082415738988853</v>
       </c>
       <c r="C19">
-        <v>-0.001610736372689067</v>
+        <v>-0.04645557030938768</v>
       </c>
       <c r="D19">
-        <v>-0.03004852779738286</v>
+        <v>-0.01211837972504849</v>
       </c>
       <c r="E19">
-        <v>0.00203859056262176</v>
+        <v>-0.01689355441804427</v>
       </c>
       <c r="F19">
-        <v>0.08017270193605545</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6">
+        <v>-0.06409203570525424</v>
+      </c>
+      <c r="G19">
+        <v>0.007235641166645128</v>
+      </c>
+      <c r="H19">
+        <v>-0.01403456707025338</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B20">
-        <v>-0.009144693242249074</v>
+        <v>-0.00141666048178514</v>
       </c>
       <c r="C20">
-        <v>-0.004908037139780458</v>
+        <v>-0.021782999618306</v>
       </c>
       <c r="D20">
-        <v>0.005482789293168281</v>
+        <v>-0.01178543607051214</v>
       </c>
       <c r="E20">
-        <v>0.01885788318411464</v>
+        <v>-0.01215474238579225</v>
       </c>
       <c r="F20">
-        <v>0.02721875693188363</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6">
+        <v>-0.03002632384415994</v>
+      </c>
+      <c r="G20">
+        <v>0.007709720406415116</v>
+      </c>
+      <c r="H20">
+        <v>-0.0129040275902042</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B21">
-        <v>0.03195649758089823</v>
+        <v>-0.006828682776527449</v>
       </c>
       <c r="C21">
-        <v>-0.02331556844118171</v>
+        <v>-0.02432330408302929</v>
       </c>
       <c r="D21">
-        <v>-0.02110806322678017</v>
+        <v>-0.01428060727650148</v>
       </c>
       <c r="E21">
-        <v>0.003529706630755653</v>
+        <v>-0.01212045594013244</v>
       </c>
       <c r="F21">
-        <v>0.03560910697023884</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6">
+        <v>-0.04214365740061388</v>
+      </c>
+      <c r="G21">
+        <v>0.02210941635413797</v>
+      </c>
+      <c r="H21">
+        <v>-0.03216124878755392</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -1137,10 +1269,16 @@
       <c r="F22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:6">
+      <c r="G22">
+        <v>0</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -1157,230 +1295,302 @@
       <c r="F23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:6">
+      <c r="G23">
+        <v>0</v>
+      </c>
+      <c r="H23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B24">
-        <v>0.02101776028533212</v>
+        <v>-0.01195309864907361</v>
       </c>
       <c r="C24">
-        <v>-0.001742337951502644</v>
+        <v>-0.04107427256119158</v>
       </c>
       <c r="D24">
-        <v>-0.03122233557837604</v>
+        <v>-0.005229610072923278</v>
       </c>
       <c r="E24">
-        <v>-0.005293943987582736</v>
+        <v>0.01125824615918882</v>
       </c>
       <c r="F24">
-        <v>0.01833391481973928</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6">
+        <v>-0.02524743201898347</v>
+      </c>
+      <c r="G24">
+        <v>-0.005008904240753794</v>
+      </c>
+      <c r="H24">
+        <v>-0.01966783273137696</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
       <c r="A25" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B25">
-        <v>0.03327221051957271</v>
+        <v>-0.02798285768131335</v>
       </c>
       <c r="C25">
-        <v>-0.0006798823969859113</v>
+        <v>-0.04950025789445624</v>
       </c>
       <c r="D25">
-        <v>-0.03247345338100943</v>
+        <v>-0.008635906123542061</v>
       </c>
       <c r="E25">
-        <v>0.002817532461835775</v>
+        <v>0.01733997145015571</v>
       </c>
       <c r="F25">
-        <v>0.03181794788789707</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6">
+        <v>-0.02643821570839485</v>
+      </c>
+      <c r="G25">
+        <v>0.004212487597588005</v>
+      </c>
+      <c r="H25">
+        <v>-0.01191362319470774</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
       <c r="A26" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B26">
-        <v>0.007040921878594869</v>
+        <v>-0.002321139117067094</v>
       </c>
       <c r="C26">
-        <v>-0.007017995013584078</v>
+        <v>-0.0007680727103573111</v>
       </c>
       <c r="D26">
-        <v>-0.008415476041731431</v>
+        <v>-0.02304779698398047</v>
       </c>
       <c r="E26">
-        <v>0.03318243634380984</v>
+        <v>0.002143880193303123</v>
       </c>
       <c r="F26">
-        <v>0.02614077371026727</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6">
+        <v>-0.009108861401433986</v>
+      </c>
+      <c r="G26">
+        <v>0.01289160090164775</v>
+      </c>
+      <c r="H26">
+        <v>-0.01689503797918292</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
       <c r="A27" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B27">
-        <v>0.0047935131118093</v>
+        <v>-0.001817838427434562</v>
       </c>
       <c r="C27">
-        <v>0.0005741993722788739</v>
+        <v>0.0004005415774514784</v>
       </c>
       <c r="D27">
-        <v>0.005423587924654242</v>
+        <v>0.000606680746588739</v>
       </c>
       <c r="E27">
-        <v>-0.007235127666835772</v>
+        <v>-0.001161212280831208</v>
       </c>
       <c r="F27">
-        <v>0.01117289525163805</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6">
+        <v>-0.0008444354710651126</v>
+      </c>
+      <c r="G27">
+        <v>0.003317243217717727</v>
+      </c>
+      <c r="H27">
+        <v>0.005351479398505537</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
       <c r="A28" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B28">
-        <v>0.09731383389935959</v>
+        <v>-0.1562544342364778</v>
       </c>
       <c r="C28">
-        <v>0.00880238056245901</v>
+        <v>0.209444713494912</v>
       </c>
       <c r="D28">
-        <v>0.2275605153843814</v>
+        <v>0.01540437237074406</v>
       </c>
       <c r="E28">
-        <v>0.06793147586421931</v>
+        <v>-0.01886029817556515</v>
       </c>
       <c r="F28">
-        <v>-0.009331859950606869</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6">
+        <v>-0.0005989079312826453</v>
+      </c>
+      <c r="G28">
+        <v>0.03106935900796029</v>
+      </c>
+      <c r="H28">
+        <v>-0.03972582222453659</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
       <c r="A29" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B29">
-        <v>0.01686590387607199</v>
+        <v>-0.01026005617588359</v>
       </c>
       <c r="C29">
-        <v>-0.01116213218850629</v>
+        <v>-0.01656044257348204</v>
       </c>
       <c r="D29">
-        <v>-0.00831820552423624</v>
+        <v>-0.006208670019109777</v>
       </c>
       <c r="E29">
-        <v>0.002966691959919166</v>
+        <v>0.005726113919171189</v>
       </c>
       <c r="F29">
-        <v>0.03907196358230692</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6">
+        <v>-0.01079978401581893</v>
+      </c>
+      <c r="G29">
+        <v>0.02319394199069957</v>
+      </c>
+      <c r="H29">
+        <v>-0.004333247542666348</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
       <c r="A30" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B30">
-        <v>0.04007939166002703</v>
+        <v>-0.03294890013568183</v>
       </c>
       <c r="C30">
-        <v>0.0475753047900621</v>
+        <v>-0.08072644008454304</v>
       </c>
       <c r="D30">
-        <v>-0.05446697494746648</v>
+        <v>-0.02347339654224763</v>
       </c>
       <c r="E30">
-        <v>0.00726356281525769</v>
+        <v>0.0008363038490667777</v>
       </c>
       <c r="F30">
-        <v>0.08497710261441117</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6">
+        <v>-0.04732322059838658</v>
+      </c>
+      <c r="G30">
+        <v>-0.03010239397011199</v>
+      </c>
+      <c r="H30">
+        <v>0.01162182099732567</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
       <c r="A31" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B31">
-        <v>0.04494413210726246</v>
+        <v>-0.03238780086695923</v>
       </c>
       <c r="C31">
-        <v>-0.0118375068423582</v>
+        <v>-0.02124345482200618</v>
       </c>
       <c r="D31">
-        <v>-0.01486156202770089</v>
+        <v>-0.001228767594293042</v>
       </c>
       <c r="E31">
-        <v>-0.006833963160627009</v>
+        <v>0.00891969194988876</v>
       </c>
       <c r="F31">
-        <v>0.02261150547908519</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6">
+        <v>0.0126951975567196</v>
+      </c>
+      <c r="G31">
+        <v>0.02443200746875298</v>
+      </c>
+      <c r="H31">
+        <v>-0.007624050229475428</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
       <c r="A32" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B32">
-        <v>-0.003545439017583162</v>
+        <v>-0.008705644945049048</v>
       </c>
       <c r="C32">
-        <v>-0.0270230778470258</v>
+        <v>-0.02303242298215464</v>
       </c>
       <c r="D32">
-        <v>-0.02738174810718604</v>
+        <v>0.007790536535351548</v>
       </c>
       <c r="E32">
-        <v>-0.007646460200722208</v>
+        <v>0.0002530898625890289</v>
       </c>
       <c r="F32">
-        <v>0.04994334279132655</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6">
+        <v>-0.09842557926079432</v>
+      </c>
+      <c r="G32">
+        <v>0.01028029226984696</v>
+      </c>
+      <c r="H32">
+        <v>-0.01458655183158032</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
       <c r="A33" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B33">
-        <v>0.03139008266585469</v>
+        <v>-0.01969465618858974</v>
       </c>
       <c r="C33">
-        <v>0.01815559662661392</v>
+        <v>-0.04667835891576579</v>
       </c>
       <c r="D33">
-        <v>-0.03459988515787223</v>
+        <v>-0.01179503357725618</v>
       </c>
       <c r="E33">
-        <v>0.01821145086569942</v>
+        <v>-0.007756423988790718</v>
       </c>
       <c r="F33">
-        <v>0.0460876794222955</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6">
+        <v>-0.02600095948378979</v>
+      </c>
+      <c r="G33">
+        <v>-0.009194520619896422</v>
+      </c>
+      <c r="H33">
+        <v>-0.02773308325889968</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
       <c r="A34" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B34">
-        <v>0.02448808009736336</v>
+        <v>-0.02865852425512309</v>
       </c>
       <c r="C34">
-        <v>-0.01148869971378426</v>
+        <v>-0.05005011887171306</v>
       </c>
       <c r="D34">
-        <v>-0.04006278965863468</v>
+        <v>0.007735748006743036</v>
       </c>
       <c r="E34">
-        <v>-0.00658970457217779</v>
+        <v>0.02185024715822832</v>
       </c>
       <c r="F34">
-        <v>0.02353943255521088</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6">
+        <v>-0.02639729560351923</v>
+      </c>
+      <c r="G34">
+        <v>0.006998521196625917</v>
+      </c>
+      <c r="H34">
+        <v>-0.01739000126503517</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
       <c r="A35" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -1397,30 +1607,42 @@
       <c r="F35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:6">
+      <c r="G35">
+        <v>0</v>
+      </c>
+      <c r="H35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
       <c r="A36" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B36">
-        <v>0.01214866647483606</v>
+        <v>-0.006128580101029532</v>
       </c>
       <c r="C36">
-        <v>-0.005974219173570033</v>
+        <v>-0.0003880337115224033</v>
       </c>
       <c r="D36">
-        <v>-0.002282511298668374</v>
+        <v>-0.01043211881266066</v>
       </c>
       <c r="E36">
-        <v>0.009310944987290928</v>
+        <v>-7.208342644398468e-05</v>
       </c>
       <c r="F36">
-        <v>0.02249154919956452</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6">
+        <v>-0.006320449824681921</v>
+      </c>
+      <c r="G36">
+        <v>0.008572852994454754</v>
+      </c>
+      <c r="H36">
+        <v>-0.01358818270766831</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
       <c r="A37" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1437,150 +1659,198 @@
       <c r="F37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:6">
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
       <c r="A38" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B38">
-        <v>0.0190585477636517</v>
+        <v>-0.02431186825022159</v>
       </c>
       <c r="C38">
-        <v>0.003353447229625016</v>
+        <v>-0.0174307398998825</v>
       </c>
       <c r="D38">
-        <v>-0.002558712364113497</v>
+        <v>0.009503926159149943</v>
       </c>
       <c r="E38">
-        <v>0.03062231477265213</v>
+        <v>0.002611568844406721</v>
       </c>
       <c r="F38">
-        <v>0.03791356492728536</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6">
+        <v>-0.01320075514816629</v>
+      </c>
+      <c r="G38">
+        <v>0.009185516572750466</v>
+      </c>
+      <c r="H38">
+        <v>-0.01282281511531646</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
       <c r="A39" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B39">
-        <v>0.0194780695323089</v>
+        <v>-0.009839799675501316</v>
       </c>
       <c r="C39">
-        <v>-0.008975576806953423</v>
+        <v>-0.08398403372789716</v>
       </c>
       <c r="D39">
-        <v>-0.05829241377201135</v>
+        <v>-0.01062730744510127</v>
       </c>
       <c r="E39">
-        <v>0.01168763281845058</v>
+        <v>0.004743305595291985</v>
       </c>
       <c r="F39">
-        <v>0.04660842363892416</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6">
+        <v>-0.04188213410235243</v>
+      </c>
+      <c r="G39">
+        <v>-0.01026804627037282</v>
+      </c>
+      <c r="H39">
+        <v>-0.03197823816545828</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
       <c r="A40" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B40">
-        <v>0.02236902004745813</v>
+        <v>-0.02007930303367239</v>
       </c>
       <c r="C40">
-        <v>0.002244221369490729</v>
+        <v>-0.0311908822458317</v>
       </c>
       <c r="D40">
-        <v>-0.03491830151511943</v>
+        <v>-0.01017437379669593</v>
       </c>
       <c r="E40">
-        <v>0.01495356491403461</v>
+        <v>0.003114063097370057</v>
       </c>
       <c r="F40">
-        <v>0.00956440128445033</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6">
+        <v>-0.03025498106667598</v>
+      </c>
+      <c r="G40">
+        <v>-0.008655910851434913</v>
+      </c>
+      <c r="H40">
+        <v>-0.02646837502967611</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
       <c r="A41" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B41">
-        <v>0.008680794273496623</v>
+        <v>-0.01045793561998346</v>
       </c>
       <c r="C41">
-        <v>0.001138803312460059</v>
+        <v>0.008266440179877476</v>
       </c>
       <c r="D41">
-        <v>0.01352655949269116</v>
+        <v>-0.002705084269412872</v>
       </c>
       <c r="E41">
-        <v>0.01446051819739786</v>
+        <v>0.004240055157626801</v>
       </c>
       <c r="F41">
-        <v>-0.002314738601429168</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6">
+        <v>-0.002081357117874562</v>
+      </c>
+      <c r="G41">
+        <v>0.003146856917926247</v>
+      </c>
+      <c r="H41">
+        <v>-0.01213635646784623</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
       <c r="A42" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B42">
-        <v>0.2607805587683727</v>
+        <v>-0.05991112919516392</v>
       </c>
       <c r="C42">
-        <v>0.1533128003750394</v>
+        <v>-0.1140573524368605</v>
       </c>
       <c r="D42">
-        <v>-0.2726010328415375</v>
+        <v>-0.1173685122362921</v>
       </c>
       <c r="E42">
-        <v>0.6452378183800324</v>
+        <v>-0.1280763199120488</v>
       </c>
       <c r="F42">
-        <v>-0.6004922280369719</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6">
+        <v>0.5996296257656569</v>
+      </c>
+      <c r="G42">
+        <v>-0.3396255904510152</v>
+      </c>
+      <c r="H42">
+        <v>-0.6731802349577368</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
       <c r="A43" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B43">
-        <v>0.01547104942756308</v>
+        <v>-0.01490897327035475</v>
       </c>
       <c r="C43">
-        <v>0.003652936613865918</v>
+        <v>0.000265704379997082</v>
       </c>
       <c r="D43">
-        <v>0.005329640852265362</v>
+        <v>-0.003295517705628728</v>
       </c>
       <c r="E43">
-        <v>0.01675665837971564</v>
+        <v>0.001551650846040296</v>
       </c>
       <c r="F43">
-        <v>0.01018295289663479</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6">
+        <v>-0.01038697309836246</v>
+      </c>
+      <c r="G43">
+        <v>-0.00169270135894509</v>
+      </c>
+      <c r="H43">
+        <v>-0.01847655654536088</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
       <c r="A44" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B44">
-        <v>0.009312934399460434</v>
+        <v>-0.008218491632247225</v>
       </c>
       <c r="C44">
-        <v>-0.01147357398735589</v>
+        <v>-0.0433564307144739</v>
       </c>
       <c r="D44">
-        <v>-0.01865131194222719</v>
+        <v>-0.005445950262530548</v>
       </c>
       <c r="E44">
-        <v>0.03762348998745255</v>
+        <v>-0.008262641054485943</v>
       </c>
       <c r="F44">
-        <v>0.06025145937371156</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6">
+        <v>-0.03424819361108786</v>
+      </c>
+      <c r="G44">
+        <v>0.006360634146506272</v>
+      </c>
+      <c r="H44">
+        <v>-0.03844225817026735</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
       <c r="A45" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1597,70 +1867,94 @@
       <c r="F45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:6">
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
       <c r="A46" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B46">
-        <v>0.01322880005712506</v>
+        <v>0.00025229510913701</v>
       </c>
       <c r="C46">
-        <v>-0.002927872534425595</v>
+        <v>-0.008429984838887645</v>
       </c>
       <c r="D46">
-        <v>-0.03488746941701477</v>
+        <v>-0.01099602631280665</v>
       </c>
       <c r="E46">
-        <v>0.006611625516392777</v>
+        <v>-0.001079509469400412</v>
       </c>
       <c r="F46">
-        <v>0.06788649824323481</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6">
+        <v>-0.01006887108300776</v>
+      </c>
+      <c r="G46">
+        <v>0.01391422904568863</v>
+      </c>
+      <c r="H46">
+        <v>-0.004193331878541946</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
       <c r="A47" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B47">
-        <v>0.07008735816033045</v>
+        <v>-0.05590546398234725</v>
       </c>
       <c r="C47">
-        <v>0.003172302492982852</v>
+        <v>-0.05512725179645298</v>
       </c>
       <c r="D47">
-        <v>-0.01893975495678762</v>
+        <v>0.007154720465662789</v>
       </c>
       <c r="E47">
-        <v>-0.02590868776528922</v>
+        <v>0.006403490911327877</v>
       </c>
       <c r="F47">
-        <v>-0.00545582683841412</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6">
+        <v>0.03549929293706076</v>
+      </c>
+      <c r="G47">
+        <v>0.0305912818600216</v>
+      </c>
+      <c r="H47">
+        <v>0.009558526918546334</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
       <c r="A48" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B48">
-        <v>0.02089077665654742</v>
+        <v>-0.008387394129557201</v>
       </c>
       <c r="C48">
-        <v>-0.004885305455252373</v>
+        <v>-0.004588713542244572</v>
       </c>
       <c r="D48">
-        <v>-0.005313081662648762</v>
+        <v>-0.0005817306865415605</v>
       </c>
       <c r="E48">
-        <v>0.007414208528251456</v>
+        <v>0.00155120907584697</v>
       </c>
       <c r="F48">
-        <v>0.02377829431150967</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6">
+        <v>0.001178415672603017</v>
+      </c>
+      <c r="G48">
+        <v>0.0147863858928878</v>
+      </c>
+      <c r="H48">
+        <v>-0.00932479350467201</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
       <c r="A49" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1677,50 +1971,68 @@
       <c r="F49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:6">
+      <c r="G49">
+        <v>0</v>
+      </c>
+      <c r="H49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
       <c r="A50" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B50">
-        <v>0.07920598005228693</v>
+        <v>-0.05769324550708627</v>
       </c>
       <c r="C50">
-        <v>-0.02603316121937367</v>
+        <v>-0.05336393548367416</v>
       </c>
       <c r="D50">
-        <v>-0.03873095717352663</v>
+        <v>0.005912183776265387</v>
       </c>
       <c r="E50">
-        <v>-0.01101446826407092</v>
+        <v>0.007910168517115781</v>
       </c>
       <c r="F50">
-        <v>0.02572660604618118</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6">
+        <v>0.02732694225189067</v>
+      </c>
+      <c r="G50">
+        <v>0.05489431053487364</v>
+      </c>
+      <c r="H50">
+        <v>-0.004307969529852308</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
       <c r="A51" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B51">
-        <v>0.006444200179204389</v>
+        <v>-0.006481825364657441</v>
       </c>
       <c r="C51">
-        <v>-0.007723071327515551</v>
+        <v>-0.01839625677264277</v>
       </c>
       <c r="D51">
-        <v>0.01441857265842098</v>
+        <v>-0.007723716518042915</v>
       </c>
       <c r="E51">
-        <v>0.03964766531949231</v>
+        <v>0.005295022569401717</v>
       </c>
       <c r="F51">
-        <v>0.06115749034453888</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6">
+        <v>-0.03643015859298112</v>
+      </c>
+      <c r="G51">
+        <v>0.007875136755587823</v>
+      </c>
+      <c r="H51">
+        <v>-0.03699134325141649</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
       <c r="A52" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1737,190 +2049,250 @@
       <c r="F52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:6">
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
       <c r="A53" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B53">
-        <v>0.101982491421979</v>
+        <v>-0.07976793652685105</v>
       </c>
       <c r="C53">
-        <v>-0.009377218877855068</v>
+        <v>-0.0825281909166852</v>
       </c>
       <c r="D53">
-        <v>-0.04715559057042677</v>
+        <v>0.008439741848343835</v>
       </c>
       <c r="E53">
-        <v>-0.05759537145976109</v>
+        <v>0.03063973807057504</v>
       </c>
       <c r="F53">
-        <v>-0.01137584786400501</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6">
+        <v>0.05167639672737962</v>
+      </c>
+      <c r="G53">
+        <v>0.0393305365585035</v>
+      </c>
+      <c r="H53">
+        <v>0.01559715563351255</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
       <c r="A54" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B54">
-        <v>0.024415810840028</v>
+        <v>-0.02023520782340606</v>
       </c>
       <c r="C54">
-        <v>-0.009851675120870275</v>
+        <v>-0.0003713640391014274</v>
       </c>
       <c r="D54">
-        <v>0.004121839345479114</v>
+        <v>0.005162440905863757</v>
       </c>
       <c r="E54">
-        <v>-0.009576304515782848</v>
+        <v>-0.002268363341401848</v>
       </c>
       <c r="F54">
-        <v>0.02774323997367038</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6">
+        <v>-0.01551902735665942</v>
+      </c>
+      <c r="G54">
+        <v>0.01833014210924204</v>
+      </c>
+      <c r="H54">
+        <v>-0.009543627294566735</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
       <c r="A55" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B55">
-        <v>0.07665103869101275</v>
+        <v>-0.05230072878236486</v>
       </c>
       <c r="C55">
-        <v>-0.002095131089811684</v>
+        <v>-0.07054696008326512</v>
       </c>
       <c r="D55">
-        <v>-0.06497870335481906</v>
+        <v>0.006047936430629796</v>
       </c>
       <c r="E55">
-        <v>-0.03468743177190481</v>
+        <v>0.01884197905513517</v>
       </c>
       <c r="F55">
-        <v>-0.01492033698479972</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6">
+        <v>0.05398615381778862</v>
+      </c>
+      <c r="G55">
+        <v>0.03053368064923514</v>
+      </c>
+      <c r="H55">
+        <v>0.01604487536863474</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
       <c r="A56" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B56">
-        <v>0.1412658548223847</v>
+        <v>-0.1171094886522238</v>
       </c>
       <c r="C56">
-        <v>-0.003672594196768792</v>
+        <v>-0.1149395811932963</v>
       </c>
       <c r="D56">
-        <v>-0.06408233496772972</v>
+        <v>0.01743920787291409</v>
       </c>
       <c r="E56">
-        <v>-0.08570965535989221</v>
+        <v>0.03201135289412434</v>
       </c>
       <c r="F56">
-        <v>-0.04376619501579176</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6">
+        <v>0.08542201806260764</v>
+      </c>
+      <c r="G56">
+        <v>0.04245672938218217</v>
+      </c>
+      <c r="H56">
+        <v>0.0454650112168612</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
       <c r="A57" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B57">
-        <v>0.03662854076210234</v>
+        <v>-0.01676969124826324</v>
       </c>
       <c r="C57">
-        <v>0.007538001406072413</v>
+        <v>-0.01801872813274892</v>
       </c>
       <c r="D57">
-        <v>-0.01750292036822854</v>
+        <v>-0.02311064448153963</v>
       </c>
       <c r="E57">
-        <v>0.04028581750950633</v>
+        <v>-0.03012207651733718</v>
       </c>
       <c r="F57">
-        <v>0.03469447349771873</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6">
+        <v>-0.03391233018740219</v>
+      </c>
+      <c r="G57">
+        <v>0.007298683550035612</v>
+      </c>
+      <c r="H57">
+        <v>-0.02458265067938575</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
       <c r="A58" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B58">
-        <v>0.1973739278943584</v>
+        <v>-0.07124379672427811</v>
       </c>
       <c r="C58">
-        <v>0.1234480030316683</v>
+        <v>-0.1469390276697609</v>
       </c>
       <c r="D58">
-        <v>-0.1965400621469567</v>
+        <v>-0.01519485068232863</v>
       </c>
       <c r="E58">
-        <v>0.359313729019677</v>
+        <v>-0.9612181749125582</v>
       </c>
       <c r="F58">
-        <v>0.6106533005523057</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6">
+        <v>-0.06205096978015306</v>
+      </c>
+      <c r="G58">
+        <v>0.09977042047161211</v>
+      </c>
+      <c r="H58">
+        <v>0.1146936382502255</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
       <c r="A59" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B59">
-        <v>0.09174450750911824</v>
+        <v>-0.1838910315377028</v>
       </c>
       <c r="C59">
-        <v>0.02893217542450889</v>
+        <v>0.1899049506945377</v>
       </c>
       <c r="D59">
-        <v>0.1899728609577762</v>
+        <v>0.0230617891815153</v>
       </c>
       <c r="E59">
-        <v>0.05481959572707583</v>
+        <v>-0.0176027714801906</v>
       </c>
       <c r="F59">
-        <v>0.03852766102047721</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6">
+        <v>-0.02702083023004559</v>
+      </c>
+      <c r="G59">
+        <v>0.004490150515833929</v>
+      </c>
+      <c r="H59">
+        <v>-0.02247304173247014</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
       <c r="A60" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B60">
-        <v>0.1837205961906369</v>
+        <v>-0.2876230897807596</v>
       </c>
       <c r="C60">
-        <v>0.03615869291071823</v>
+        <v>-0.1338042656565156</v>
       </c>
       <c r="D60">
-        <v>0.01844753775508621</v>
+        <v>0.008319704643199272</v>
       </c>
       <c r="E60">
-        <v>0.05404803743667469</v>
+        <v>0.06841885853006505</v>
       </c>
       <c r="F60">
-        <v>0.1057705220832923</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6">
+        <v>-0.3535989538869036</v>
+      </c>
+      <c r="G60">
+        <v>-0.2040840094115137</v>
+      </c>
+      <c r="H60">
+        <v>-0.1185816192674044</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
       <c r="A61" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B61">
-        <v>0.02436654240523863</v>
+        <v>-0.01679128806394371</v>
       </c>
       <c r="C61">
-        <v>-0.00331528135692435</v>
+        <v>-0.06497831630325369</v>
       </c>
       <c r="D61">
-        <v>-0.04656314563353168</v>
+        <v>-0.003629613492661466</v>
       </c>
       <c r="E61">
-        <v>0.005269094456222569</v>
+        <v>0.00749977951196731</v>
       </c>
       <c r="F61">
-        <v>0.02313154090310792</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6">
+        <v>-0.03568587413720974</v>
+      </c>
+      <c r="G61">
+        <v>-0.002268465970049662</v>
+      </c>
+      <c r="H61">
+        <v>-0.01951176458518518</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8">
       <c r="A62" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1937,150 +2309,198 @@
       <c r="F62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:6">
+      <c r="G62">
+        <v>0</v>
+      </c>
+      <c r="H62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
       <c r="A63" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B63">
-        <v>0.01337351785216921</v>
+        <v>-0.006961516573302506</v>
       </c>
       <c r="C63">
-        <v>-0.00633154274229722</v>
+        <v>-0.02535365782577192</v>
       </c>
       <c r="D63">
-        <v>-0.01878757455528858</v>
+        <v>-0.007181904167398062</v>
       </c>
       <c r="E63">
-        <v>-0.00031536328306772</v>
+        <v>0.01443828218215977</v>
       </c>
       <c r="F63">
-        <v>0.01041101306767295</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6">
+        <v>-0.006752791916471537</v>
+      </c>
+      <c r="G63">
+        <v>0.01808638280359099</v>
+      </c>
+      <c r="H63">
+        <v>-0.005098162517266061</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8">
       <c r="A64" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B64">
-        <v>0.03929326519650427</v>
+        <v>-0.03688988604782261</v>
       </c>
       <c r="C64">
-        <v>-0.003882518947442586</v>
+        <v>-0.03876968484448861</v>
       </c>
       <c r="D64">
-        <v>-0.02962172199018636</v>
+        <v>-0.002289638685417381</v>
       </c>
       <c r="E64">
-        <v>-0.001436289331512592</v>
+        <v>0.01742329722795359</v>
       </c>
       <c r="F64">
-        <v>0.02439229549886411</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6">
+        <v>-0.003483253974443617</v>
+      </c>
+      <c r="G64">
+        <v>0.0001936928252917075</v>
+      </c>
+      <c r="H64">
+        <v>-0.02291945880164637</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8">
       <c r="A65" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B65">
-        <v>0.05236392080260886</v>
+        <v>-0.05877977118436074</v>
       </c>
       <c r="C65">
-        <v>-0.008653951938589671</v>
+        <v>-0.07919372045244687</v>
       </c>
       <c r="D65">
-        <v>-0.04277234790795283</v>
+        <v>-0.01254417224681965</v>
       </c>
       <c r="E65">
-        <v>-0.008574129090709285</v>
+        <v>0.01835746119916716</v>
       </c>
       <c r="F65">
-        <v>0.03701164488529119</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6">
+        <v>-0.03238709137241982</v>
+      </c>
+      <c r="G65">
+        <v>0.0006403444920651496</v>
+      </c>
+      <c r="H65">
+        <v>0.004362700002455019</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8">
       <c r="A66" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B66">
-        <v>0.03995066556225577</v>
+        <v>-0.02357861540846268</v>
       </c>
       <c r="C66">
-        <v>0.007777733426249651</v>
+        <v>-0.1244187038465421</v>
       </c>
       <c r="D66">
-        <v>-0.06916656385314141</v>
+        <v>-0.008895788540051077</v>
       </c>
       <c r="E66">
-        <v>-0.0310372798155551</v>
+        <v>0.009497378862353967</v>
       </c>
       <c r="F66">
-        <v>0.06473949149526088</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6">
+        <v>-0.06146907999558498</v>
+      </c>
+      <c r="G66">
+        <v>-0.01628156468570914</v>
+      </c>
+      <c r="H66">
+        <v>-0.007553422335954981</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8">
       <c r="A67" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B67">
-        <v>0.03100589615246067</v>
+        <v>-0.04778871832503489</v>
       </c>
       <c r="C67">
-        <v>0.006056742282215043</v>
+        <v>-0.02491703530462199</v>
       </c>
       <c r="D67">
-        <v>0.004576916733816252</v>
+        <v>0.008943048427410671</v>
       </c>
       <c r="E67">
-        <v>0.01247443627558699</v>
+        <v>0.009360623209973308</v>
       </c>
       <c r="F67">
-        <v>0.02712143737873785</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6">
+        <v>-0.01555377140323391</v>
+      </c>
+      <c r="G67">
+        <v>0.01210711582590757</v>
+      </c>
+      <c r="H67">
+        <v>-0.004836648253293026</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8">
       <c r="A68" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B68">
-        <v>0.09699099290615698</v>
+        <v>-0.1745720608235657</v>
       </c>
       <c r="C68">
-        <v>0.0301286389898901</v>
+        <v>0.2346317560315198</v>
       </c>
       <c r="D68">
-        <v>0.2188699139038721</v>
+        <v>0.004183190565707908</v>
       </c>
       <c r="E68">
-        <v>0.05364517561863636</v>
+        <v>-0.02890626156455925</v>
       </c>
       <c r="F68">
-        <v>0.01299583732277322</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6">
+        <v>0.009737673430582265</v>
+      </c>
+      <c r="G68">
+        <v>0.01339016013236207</v>
+      </c>
+      <c r="H68">
+        <v>-0.02466308860562504</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8">
       <c r="A69" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B69">
-        <v>0.05911934502427393</v>
+        <v>-0.05643901928113185</v>
       </c>
       <c r="C69">
-        <v>0.001972606263773735</v>
+        <v>-0.05000169339414082</v>
       </c>
       <c r="D69">
-        <v>-0.02645428753892838</v>
+        <v>0.01164575543177035</v>
       </c>
       <c r="E69">
-        <v>-0.0295033283009699</v>
+        <v>0.02773035557202664</v>
       </c>
       <c r="F69">
-        <v>0.008097234369809931</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6">
+        <v>0.01339017714983116</v>
+      </c>
+      <c r="G69">
+        <v>0.01754850911787453</v>
+      </c>
+      <c r="H69">
+        <v>0.004958333292551065</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8">
       <c r="A70" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -2097,170 +2517,224 @@
       <c r="F70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:6">
+      <c r="G70">
+        <v>0</v>
+      </c>
+      <c r="H70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8">
       <c r="A71" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B71">
-        <v>0.09130415037254548</v>
+        <v>-0.1583935071568832</v>
       </c>
       <c r="C71">
-        <v>0.01605976327079059</v>
+        <v>0.1945683520322306</v>
       </c>
       <c r="D71">
-        <v>0.2135589864781927</v>
+        <v>0.0106591336691825</v>
       </c>
       <c r="E71">
-        <v>0.09957859435367741</v>
+        <v>-0.04270120703608094</v>
       </c>
       <c r="F71">
-        <v>-0.02118356416301553</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6">
+        <v>0.01481214598964608</v>
+      </c>
+      <c r="G71">
+        <v>0.02378633779879334</v>
+      </c>
+      <c r="H71">
+        <v>-0.04891608918282923</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8">
       <c r="A72" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B72">
-        <v>0.1020632927075864</v>
+        <v>-0.06723414480639138</v>
       </c>
       <c r="C72">
-        <v>-0.004537145936643367</v>
+        <v>-0.08947450042782192</v>
       </c>
       <c r="D72">
-        <v>-0.1004363249386279</v>
+        <v>0.01365590432368219</v>
       </c>
       <c r="E72">
-        <v>-0.02345961998359904</v>
+        <v>0.03306832195427211</v>
       </c>
       <c r="F72">
-        <v>0.1464141113241019</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6">
+        <v>-0.0505820305153126</v>
+      </c>
+      <c r="G72">
+        <v>-0.01367542731644207</v>
+      </c>
+      <c r="H72">
+        <v>0.01165199534404983</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8">
       <c r="A73" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B73">
-        <v>0.2308353803985707</v>
+        <v>-0.3570110023550775</v>
       </c>
       <c r="C73">
-        <v>0.09157355998858499</v>
+        <v>-0.188694599163413</v>
       </c>
       <c r="D73">
-        <v>-0.01628460589979785</v>
+        <v>0.0036797266681379</v>
       </c>
       <c r="E73">
-        <v>0.1086792024146469</v>
+        <v>0.05482334915474951</v>
       </c>
       <c r="F73">
-        <v>0.1158450996755735</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6">
+        <v>-0.3818448007397275</v>
+      </c>
+      <c r="G73">
+        <v>-0.2664459248328354</v>
+      </c>
+      <c r="H73">
+        <v>-0.1571654450063058</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8">
       <c r="A74" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B74">
-        <v>0.1330664251099797</v>
+        <v>-0.105990903120551</v>
       </c>
       <c r="C74">
-        <v>0.003384270394186618</v>
+        <v>-0.1224000687485315</v>
       </c>
       <c r="D74">
-        <v>-0.06173850797755807</v>
+        <v>0.01563831542000153</v>
       </c>
       <c r="E74">
-        <v>-0.08025588913712585</v>
+        <v>0.03591132290730991</v>
       </c>
       <c r="F74">
-        <v>-0.0369036089557836</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6">
+        <v>0.06476150910794481</v>
+      </c>
+      <c r="G74">
+        <v>0.04736492274338434</v>
+      </c>
+      <c r="H74">
+        <v>0.0263072203815218</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8">
       <c r="A75" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B75">
-        <v>0.2523726624906513</v>
+        <v>-0.2253760338089056</v>
       </c>
       <c r="C75">
-        <v>0.016642321089158</v>
+        <v>-0.1871885897027231</v>
       </c>
       <c r="D75">
-        <v>-0.08957955906555098</v>
+        <v>0.03740232293986216</v>
       </c>
       <c r="E75">
-        <v>-0.1917013102236961</v>
+        <v>0.04069938388056198</v>
       </c>
       <c r="F75">
-        <v>-0.01672189324791002</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6">
+        <v>0.1664742384304652</v>
+      </c>
+      <c r="G75">
+        <v>0.07942739333409517</v>
+      </c>
+      <c r="H75">
+        <v>0.1281043330366076</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8">
       <c r="A76" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B76">
-        <v>0.2699721395917905</v>
+        <v>-0.1466453828738269</v>
       </c>
       <c r="C76">
-        <v>-0.003860827240109103</v>
+        <v>-0.1470959185318784</v>
       </c>
       <c r="D76">
-        <v>-0.1015021595305506</v>
+        <v>0.03014966741988177</v>
       </c>
       <c r="E76">
-        <v>-0.2335633696390955</v>
+        <v>0.06104825194916093</v>
       </c>
       <c r="F76">
-        <v>-0.07487979368666237</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6">
+        <v>0.1507541530917589</v>
+      </c>
+      <c r="G76">
+        <v>0.0900073202630769</v>
+      </c>
+      <c r="H76">
+        <v>0.0950277408155194</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8">
       <c r="A77" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B77">
-        <v>0.09021751996756781</v>
+        <v>-0.04639238929452796</v>
       </c>
       <c r="C77">
-        <v>0.01100822527324333</v>
+        <v>-0.06949403334351982</v>
       </c>
       <c r="D77">
-        <v>-0.07346009070774204</v>
+        <v>-0.01140500277026432</v>
       </c>
       <c r="E77">
-        <v>0.1165082823644018</v>
+        <v>-0.03123699561553048</v>
       </c>
       <c r="F77">
-        <v>0.02400903098506163</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6">
+        <v>0.0275512835089037</v>
+      </c>
+      <c r="G77">
+        <v>0.02261650107928236</v>
+      </c>
+      <c r="H77">
+        <v>-0.03733465696164869</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8">
       <c r="A78" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B78">
-        <v>0.026705322183312</v>
+        <v>-0.02939016864076031</v>
       </c>
       <c r="C78">
-        <v>-0.006904207005992643</v>
+        <v>-0.06249660927658908</v>
       </c>
       <c r="D78">
-        <v>-0.05835786712315676</v>
+        <v>-0.003728884526114164</v>
       </c>
       <c r="E78">
-        <v>0.01643854548253634</v>
+        <v>-0.003976641076151712</v>
       </c>
       <c r="F78">
-        <v>0.06838565273284707</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6">
+        <v>-0.050856274200222</v>
+      </c>
+      <c r="G78">
+        <v>-0.003320867219762495</v>
+      </c>
+      <c r="H78">
+        <v>-0.01744698271695875</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8">
       <c r="A79" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B79">
         <v>0</v>
@@ -2277,90 +2751,120 @@
       <c r="F79">
         <v>0</v>
       </c>
-    </row>
-    <row r="80" spans="1:6">
+      <c r="G79">
+        <v>0</v>
+      </c>
+      <c r="H79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8">
       <c r="A80" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B80">
-        <v>0.1984196233219264</v>
+        <v>-0.06422480751319068</v>
       </c>
       <c r="C80">
-        <v>-0.9513762134375694</v>
+        <v>-0.08690724626105267</v>
       </c>
       <c r="D80">
-        <v>0.0434921044355929</v>
+        <v>-0.008141727886022979</v>
       </c>
       <c r="E80">
-        <v>0.1543387197790058</v>
+        <v>0.06606081348584873</v>
       </c>
       <c r="F80">
-        <v>-0.0126782159810001</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6">
+        <v>-0.1222735532661455</v>
+      </c>
+      <c r="G80">
+        <v>0.8100637068028661</v>
+      </c>
+      <c r="H80">
+        <v>-0.490734145745305</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8">
       <c r="A81" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B81">
-        <v>0.203065452956724</v>
+        <v>-0.137185184941968</v>
       </c>
       <c r="C81">
-        <v>0.002243547316790166</v>
+        <v>-0.1075426471378554</v>
       </c>
       <c r="D81">
-        <v>-0.05415439121951791</v>
+        <v>0.02262516175330421</v>
       </c>
       <c r="E81">
-        <v>-0.1520216268155279</v>
+        <v>0.02382237265747201</v>
       </c>
       <c r="F81">
-        <v>-0.0008416071908563507</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6">
+        <v>0.1108106930867375</v>
+      </c>
+      <c r="G81">
+        <v>0.06966413330668356</v>
+      </c>
+      <c r="H81">
+        <v>0.06911824487507234</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8">
       <c r="A82" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B82">
-        <v>0</v>
+        <v>-0.01656931347957401</v>
       </c>
       <c r="C82">
-        <v>0</v>
+        <v>-0.0123911220642803</v>
       </c>
       <c r="D82">
-        <v>0</v>
+        <v>0.001504635206156429</v>
       </c>
       <c r="E82">
-        <v>0</v>
+        <v>0.01469700435646998</v>
       </c>
       <c r="F82">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83" spans="1:6">
+        <v>-0.01381715705734032</v>
+      </c>
+      <c r="G82">
+        <v>-0.007941425140727957</v>
+      </c>
+      <c r="H82">
+        <v>5.769087534544475e-05</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8">
       <c r="A83" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B83">
-        <v>0.02642577148155676</v>
+        <v>-0.02161465140796042</v>
       </c>
       <c r="C83">
-        <v>0.004900286017497925</v>
+        <v>-0.01908485782112753</v>
       </c>
       <c r="D83">
-        <v>-0.01190962587679163</v>
+        <v>-0.004059947959674507</v>
       </c>
       <c r="E83">
-        <v>0.03274287516873119</v>
+        <v>-0.01577482667416944</v>
       </c>
       <c r="F83">
-        <v>0.03923306813652223</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6">
+        <v>-0.03636395413537252</v>
+      </c>
+      <c r="G83">
+        <v>0.004722539115140743</v>
+      </c>
+      <c r="H83">
+        <v>-0.02100532565577531</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8">
       <c r="A84" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -2377,230 +2881,302 @@
       <c r="F84">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:6">
+      <c r="G84">
+        <v>0</v>
+      </c>
+      <c r="H84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8">
       <c r="A85" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B85">
-        <v>0.250200065323789</v>
+        <v>-0.2172328354409542</v>
       </c>
       <c r="C85">
-        <v>0.02472068409373966</v>
+        <v>-0.1955874090000446</v>
       </c>
       <c r="D85">
-        <v>-0.1072044084319912</v>
+        <v>0.02569831573615355</v>
       </c>
       <c r="E85">
-        <v>-0.2074709370773886</v>
+        <v>0.0723901061102625</v>
       </c>
       <c r="F85">
-        <v>-0.04473104591720862</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6">
+        <v>0.1677577627847619</v>
+      </c>
+      <c r="G85">
+        <v>0.0371818969365806</v>
+      </c>
+      <c r="H85">
+        <v>0.1436638084295526</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8">
       <c r="A86" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B86">
-        <v>0.00356884598443361</v>
+        <v>-0.008245945879507839</v>
       </c>
       <c r="C86">
-        <v>-0.009618642048790175</v>
+        <v>-0.02671750130137296</v>
       </c>
       <c r="D86">
-        <v>-0.04178230783336616</v>
+        <v>-0.00857267871893602</v>
       </c>
       <c r="E86">
-        <v>0.02855323043937277</v>
+        <v>-0.006385939779005801</v>
       </c>
       <c r="F86">
-        <v>0.07095252611060146</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6">
+        <v>-0.03252966920339814</v>
+      </c>
+      <c r="G86">
+        <v>0.01521168871139799</v>
+      </c>
+      <c r="H86">
+        <v>-0.06101577032861658</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8">
       <c r="A87" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B87">
-        <v>0.03300464142580344</v>
+        <v>-0.005858662364527248</v>
       </c>
       <c r="C87">
-        <v>-0.006719519579415724</v>
+        <v>-0.03705693599835525</v>
       </c>
       <c r="D87">
-        <v>-0.04163634602098856</v>
+        <v>-0.01014037348011117</v>
       </c>
       <c r="E87">
-        <v>0.05574642025183518</v>
+        <v>-0.04166576233406808</v>
       </c>
       <c r="F87">
-        <v>0.07080666599320119</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6">
+        <v>-0.05100441481308679</v>
+      </c>
+      <c r="G87">
+        <v>0.007014682720169431</v>
+      </c>
+      <c r="H87">
+        <v>-0.05213868491408729</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8">
       <c r="A88" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B88">
-        <v>0.04277818214029157</v>
+        <v>-0.05879982203866494</v>
       </c>
       <c r="C88">
-        <v>0.00577535104737756</v>
+        <v>-0.04451810348094941</v>
       </c>
       <c r="D88">
-        <v>0.002401419103903353</v>
+        <v>-0.01910689121089942</v>
       </c>
       <c r="E88">
-        <v>0.0002574430791663773</v>
+        <v>0.009548270332120459</v>
       </c>
       <c r="F88">
-        <v>-0.01034684332781628</v>
-      </c>
-    </row>
-    <row r="89" spans="1:6">
+        <v>-0.03389977173913756</v>
+      </c>
+      <c r="G88">
+        <v>0.00160534306408835</v>
+      </c>
+      <c r="H88">
+        <v>-0.01300679885887173</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8">
       <c r="A89" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B89">
-        <v>0.1644383771531836</v>
+        <v>-0.2794948873629007</v>
       </c>
       <c r="C89">
-        <v>0.0612827459599084</v>
+        <v>0.3329347428551608</v>
       </c>
       <c r="D89">
-        <v>0.3698418241427661</v>
+        <v>0.0182451168673535</v>
       </c>
       <c r="E89">
-        <v>0.0413109307713475</v>
+        <v>-0.01611708576419308</v>
       </c>
       <c r="F89">
-        <v>0.03378242108566425</v>
-      </c>
-    </row>
-    <row r="90" spans="1:6">
+        <v>0.006187831469202473</v>
+      </c>
+      <c r="G89">
+        <v>0.007116432550962322</v>
+      </c>
+      <c r="H89">
+        <v>-0.005703702278407113</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8">
       <c r="A90" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B90">
-        <v>0.1087657210281848</v>
+        <v>-0.228941400717329</v>
       </c>
       <c r="C90">
-        <v>0.05812021827907062</v>
+        <v>0.304205327397481</v>
       </c>
       <c r="D90">
-        <v>0.3356294974533209</v>
+        <v>0.01793225648580845</v>
       </c>
       <c r="E90">
-        <v>0.04628136749234083</v>
+        <v>-0.02936854504348562</v>
       </c>
       <c r="F90">
-        <v>-0.02061785424768769</v>
-      </c>
-    </row>
-    <row r="91" spans="1:6">
+        <v>0.04808774299245427</v>
+      </c>
+      <c r="G90">
+        <v>0.006425891868924522</v>
+      </c>
+      <c r="H90">
+        <v>0.00531158403214058</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8">
       <c r="A91" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B91">
-        <v>0.2970865982233234</v>
+        <v>-0.1980107135781528</v>
       </c>
       <c r="C91">
-        <v>0.02640322352264937</v>
+        <v>-0.1516849611970917</v>
       </c>
       <c r="D91">
-        <v>-0.116875042333577</v>
+        <v>0.03338919857156799</v>
       </c>
       <c r="E91">
-        <v>-0.2196393495073069</v>
+        <v>0.05516741242374751</v>
       </c>
       <c r="F91">
-        <v>-0.1241326003048236</v>
-      </c>
-    </row>
-    <row r="92" spans="1:6">
+        <v>0.1807633066425825</v>
+      </c>
+      <c r="G91">
+        <v>0.07486354428651069</v>
+      </c>
+      <c r="H91">
+        <v>0.1039987443984783</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8">
       <c r="A92" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B92">
-        <v>0.2229511104795585</v>
+        <v>-0.2498001688630283</v>
       </c>
       <c r="C92">
-        <v>0.06192775333229742</v>
+        <v>0.2468525501912925</v>
       </c>
       <c r="D92">
-        <v>0.3743231457604848</v>
+        <v>0.06133257118923779</v>
       </c>
       <c r="E92">
-        <v>-0.05989112541973361</v>
+        <v>-0.04037330795111122</v>
       </c>
       <c r="F92">
-        <v>-0.01195866967761972</v>
-      </c>
-    </row>
-    <row r="93" spans="1:6">
+        <v>0.1072037787766173</v>
+      </c>
+      <c r="G92">
+        <v>0.0909513428900638</v>
+      </c>
+      <c r="H92">
+        <v>0.06129204536989696</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8">
       <c r="A93" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B93">
-        <v>0.1564707819009877</v>
+        <v>-0.2611744705652692</v>
       </c>
       <c r="C93">
-        <v>0.08379526913564368</v>
+        <v>0.293473254276976</v>
       </c>
       <c r="D93">
-        <v>0.3926819114304067</v>
+        <v>0.0261754210046295</v>
       </c>
       <c r="E93">
-        <v>0.0826539478200472</v>
+        <v>-0.03556204209948226</v>
       </c>
       <c r="F93">
-        <v>-0.05424108695616576</v>
-      </c>
-    </row>
-    <row r="94" spans="1:6">
+        <v>0.02190387068836882</v>
+      </c>
+      <c r="G93">
+        <v>-0.01399344758210825</v>
+      </c>
+      <c r="H93">
+        <v>-0.02846959927839634</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8">
       <c r="A94" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B94">
-        <v>0.3229065147589593</v>
+        <v>-0.2617962048462777</v>
       </c>
       <c r="C94">
-        <v>0.05546684945977356</v>
+        <v>-0.1973903366172728</v>
       </c>
       <c r="D94">
-        <v>-0.08038894290080356</v>
+        <v>0.02320401301279258</v>
       </c>
       <c r="E94">
-        <v>-0.2548863760908865</v>
+        <v>0.06444017078129939</v>
       </c>
       <c r="F94">
-        <v>-0.007937402037151155</v>
-      </c>
-    </row>
-    <row r="95" spans="1:6">
+        <v>0.2616414198660739</v>
+      </c>
+      <c r="G94">
+        <v>0.08436455549048541</v>
+      </c>
+      <c r="H94">
+        <v>0.3378001407726118</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8">
       <c r="A95" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B95">
-        <v>0.06134748161348955</v>
+        <v>-0.07895880270236955</v>
       </c>
       <c r="C95">
-        <v>0.07783283320161177</v>
+        <v>-0.1163864410564031</v>
       </c>
       <c r="D95">
-        <v>-0.03094718435633895</v>
+        <v>0.01230156793750804</v>
       </c>
       <c r="E95">
-        <v>-0.003513632045843506</v>
+        <v>-0.01982847701233993</v>
       </c>
       <c r="F95">
-        <v>0.01349169354981198</v>
-      </c>
-    </row>
-    <row r="96" spans="1:6">
+        <v>-0.081065767088648</v>
+      </c>
+      <c r="G95">
+        <v>-0.1177834348940328</v>
+      </c>
+      <c r="H95">
+        <v>-0.02136498292061869</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8">
       <c r="A96" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2617,10 +3193,16 @@
       <c r="F96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:6">
+      <c r="G96">
+        <v>0</v>
+      </c>
+      <c r="H96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8">
       <c r="A97" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2637,30 +3219,42 @@
       <c r="F97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:6">
+      <c r="G97">
+        <v>0</v>
+      </c>
+      <c r="H97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8">
       <c r="A98" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B98">
-        <v>0.1875177021976933</v>
+        <v>-0.1996134063807305</v>
       </c>
       <c r="C98">
-        <v>0.053828291092056</v>
+        <v>-0.07665681072407682</v>
       </c>
       <c r="D98">
-        <v>0.02872134600315639</v>
+        <v>0.02811098586578438</v>
       </c>
       <c r="E98">
-        <v>0.1092987718903731</v>
+        <v>-0.009406941542918193</v>
       </c>
       <c r="F98">
-        <v>0.1144724973830244</v>
-      </c>
-    </row>
-    <row r="99" spans="1:6">
+        <v>-0.2066155520086601</v>
+      </c>
+      <c r="G98">
+        <v>-0.1455429609963165</v>
+      </c>
+      <c r="H98">
+        <v>-0.1297947448688589</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8">
       <c r="A99" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2677,10 +3271,16 @@
       <c r="F99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:6">
+      <c r="G99">
+        <v>0</v>
+      </c>
+      <c r="H99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8">
       <c r="A100" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2697,85 +3297,115 @@
       <c r="F100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:6">
+      <c r="G100">
+        <v>0</v>
+      </c>
+      <c r="H100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8">
       <c r="A101" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B101">
-        <v>-0.0007284981457599309</v>
+        <v>-0.004413292492049492</v>
       </c>
       <c r="C101">
-        <v>-0.003876657859981649</v>
+        <v>-0.01751257078209936</v>
       </c>
       <c r="D101">
-        <v>-0.03106611484301357</v>
+        <v>-0.007186878035101466</v>
       </c>
       <c r="E101">
-        <v>0.05889445818213814</v>
+        <v>-0.03092248322056953</v>
       </c>
       <c r="F101">
-        <v>0.1844474566785161</v>
-      </c>
-    </row>
-    <row r="102" spans="1:6">
+        <v>-0.0259424088155365</v>
+      </c>
+      <c r="G101">
+        <v>0.02920151029762882</v>
+      </c>
+      <c r="H101">
+        <v>0.007070759284258267</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8">
       <c r="A102" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B102">
-        <v>0.1311855228774011</v>
+        <v>-0.1123082663056985</v>
       </c>
       <c r="C102">
-        <v>0.007854718765101201</v>
+        <v>-0.09304832511894334</v>
       </c>
       <c r="D102">
-        <v>-0.04717035686443617</v>
+        <v>0.005138938587853365</v>
       </c>
       <c r="E102">
-        <v>-0.1009701705920778</v>
+        <v>0.04279805038819441</v>
       </c>
       <c r="F102">
-        <v>-0.05412703010973391</v>
-      </c>
-    </row>
-    <row r="103" spans="1:6">
+        <v>0.06917753720332476</v>
+      </c>
+      <c r="G102">
+        <v>0.02373825433230659</v>
+      </c>
+      <c r="H102">
+        <v>0.04942461593087551</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8">
       <c r="A103" s="1" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B103">
-        <v>0.041705487938925</v>
+        <v>-0.009265992503892363</v>
       </c>
       <c r="C103">
-        <v>-0.01591203040666135</v>
+        <v>-0.008866755638286256</v>
       </c>
       <c r="D103">
-        <v>-0.01747812852419924</v>
+        <v>0.0005557974739193131</v>
       </c>
       <c r="E103">
-        <v>-0.02055395137671387</v>
+        <v>-0.001043018262814958</v>
       </c>
       <c r="F103">
-        <v>0.006235651407021455</v>
-      </c>
-    </row>
-    <row r="104" spans="1:6">
+        <v>0.01069411958923737</v>
+      </c>
+      <c r="G103">
+        <v>0.02129889515768827</v>
+      </c>
+      <c r="H103">
+        <v>-0.00234212348271999</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8">
       <c r="A104" s="1" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B104">
-        <v>0</v>
+        <v>-0.08027840409184674</v>
       </c>
       <c r="C104">
-        <v>0</v>
+        <v>0.03990438238597433</v>
       </c>
       <c r="D104">
-        <v>0</v>
+        <v>-0.9826603888313391</v>
       </c>
       <c r="E104">
-        <v>0</v>
+        <v>0.03790208406109111</v>
       </c>
       <c r="F104">
-        <v>0</v>
+        <v>-0.02669408293314809</v>
+      </c>
+      <c r="G104">
+        <v>0.04423366336346005</v>
+      </c>
+      <c r="H104">
+        <v>0.1124612148519534</v>
       </c>
     </row>
   </sheetData>
